--- a/biology/Botanique/Conservatoire_des_collections_végétales_spécialisées/Conservatoire_des_collections_végétales_spécialisées.xlsx
+++ b/biology/Botanique/Conservatoire_des_collections_végétales_spécialisées/Conservatoire_des_collections_végétales_spécialisées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Conservatoire_des_collections_v%C3%A9g%C3%A9tales_sp%C3%A9cialis%C3%A9es</t>
+          <t>Conservatoire_des_collections_végétales_spécialisées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Conservatoire des collections végétales spécialisées, abrégé par le sigle CCVS, est une association française de loi de 1901, créée en 1989, à l'initiative de Jean-Noel Burte, Conservateur des Jardins du Luxembourg, Sénat, Paris, et de scientifiques et botanistes amateurs passionnés, qui a pour objectif de fédérer toutes les initiatives privées ou publiques visant à préserver le patrimoine horticole et botanique et en particulier les cultivars et variétés sélectionnés par l'homme, de manière à lutter contre leur disparition.
 Son équivalent britannique est Plant Heritage (auparavant connu sous le nom de NCCPG - National Council for the Conservation of Plants and Gardens National Council for the Conservation of Plants and Gardens (en)) et son équivalent allemand le Netzwerk Pflanzensammlungen. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Conservatoire_des_collections_v%C3%A9g%C3%A9tales_sp%C3%A9cialis%C3%A9es</t>
+          <t>Conservatoire_des_collections_végétales_spécialisées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Objectifs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'association a pour objets :
 d'encourager l'introduction, la conservation et la multiplication de plantes peu communes ou peu connues
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Conservatoire_des_collections_v%C3%A9g%C3%A9tales_sp%C3%A9cialis%C3%A9es</t>
+          <t>Conservatoire_des_collections_végétales_spécialisées</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'activité principale du CCVS est la labellisation après cotisation, de collections végétales.  
 Deux types de reconnaissances sont attribués, suivant des critères spécifiques :
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Conservatoire_des_collections_v%C3%A9g%C3%A9tales_sp%C3%A9cialis%C3%A9es</t>
+          <t>Conservatoire_des_collections_végétales_spécialisées</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Partenaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ce sont essentiellement des propriétaires ou gestionnaires de collections végétales, publics ou privés, dont des :
 pépiniéristes ;
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Conservatoire_des_collections_v%C3%A9g%C3%A9tales_sp%C3%A9cialis%C3%A9es</t>
+          <t>Conservatoire_des_collections_végétales_spécialisées</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,7 +633,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le CCVS édite une revue trimestrielle, Hommes et plantes  (ISSN 1163-4464), qui contient notamment des reportages sur les collections végétales existantes tant en France qu'à l'étranger. 
 Le CCVS publie un annuaire des collections labellisées. 
@@ -629,7 +649,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Conservatoire_des_collections_v%C3%A9g%C3%A9tales_sp%C3%A9cialis%C3%A9es</t>
+          <t>Conservatoire_des_collections_végétales_spécialisées</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -647,7 +667,9 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le CCVS compte environ 300 adhérents et sa présidente est Françoise Lenoble-Prédine.
 Son siège est situé à Paris, 46 Rue Beaunier.
@@ -661,7 +683,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Conservatoire_des_collections_v%C3%A9g%C3%A9tales_sp%C3%A9cialis%C3%A9es</t>
+          <t>Conservatoire_des_collections_végétales_spécialisées</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -679,7 +701,9 @@
           <t>Liste des collections labellisées</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>La liste des Collections labellisées[Quoi ?] est régulièrement mise à jour sur le site internet du CCVS.
 Acacia : Pépinières Gérard Cavatore, Bormes-les-Mimosas,
